--- a/data/trans_camb/P26-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P26-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-8.665591965838647</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-29.04154145757146</v>
+        <v>-29.04154145757145</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.763749538537276</v>
@@ -655,7 +655,7 @@
         <v>-10.51897935819519</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-27.11281326864791</v>
+        <v>-27.11281326864792</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>4.336030319362822</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.603495321921405</v>
+        <v>-2.605164010694881</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.15755344839619</v>
+        <v>-14.68127762576233</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-36.54213575121461</v>
+        <v>-36.38976518933752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.395162101012093</v>
+        <v>-1.331915183391708</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-16.84210003511659</v>
+        <v>-17.03714912243878</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-34.08577345972873</v>
+        <v>-33.84658403480928</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2846447995776993</v>
+        <v>-0.3108321456805738</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-14.0884896715946</v>
+        <v>-14.27345544810343</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-33.63770257509731</v>
+        <v>-33.41530470273822</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.73141105445905</v>
+        <v>10.51302845469698</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.468715161002438</v>
+        <v>-0.9934562684998356</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-20.04058816278003</v>
+        <v>-20.0837442860345</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.65359851043832</v>
+        <v>11.62302728666907</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.235926761879341</v>
+        <v>-3.519171869262923</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-19.93924953274823</v>
+        <v>-19.30836195607473</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.101453705203843</v>
+        <v>8.853739209825322</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-4.932957385279593</v>
+        <v>-4.586552258461648</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-21.88303337587739</v>
+        <v>-21.77058137457178</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1781367377458163</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.5970008136496633</v>
+        <v>-0.5970008136496631</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1012260484547838</v>
@@ -760,7 +760,7 @@
         <v>-0.2235202975290101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.5761266261954593</v>
+        <v>-0.5761266261954594</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.09058245450102081</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04847174003295855</v>
+        <v>-0.04865567751467979</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2987475616669765</v>
+        <v>-0.2854493033386548</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7289353615034573</v>
+        <v>-0.7210738565859891</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.04735035613889</v>
+        <v>-0.02474110892358286</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3374845801172213</v>
+        <v>-0.3411375196817592</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.69470294674258</v>
+        <v>-0.6924781103882014</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.005370968230887399</v>
+        <v>-0.00585420773080644</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2828041280609748</v>
+        <v>-0.2825769172215041</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6802647833231797</v>
+        <v>-0.6679047138895476</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2393717405415713</v>
+        <v>0.2393622043509425</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.03344434190748374</v>
+        <v>-0.02094886314019789</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4242926717380124</v>
+        <v>-0.4395686080480686</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.238345157110484</v>
+        <v>0.2725038528528806</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.08918327869100377</v>
+        <v>-0.08039927408588096</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4395719708093835</v>
+        <v>-0.423045783471541</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2003464029155691</v>
+        <v>0.1959919759777341</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1053865385772794</v>
+        <v>-0.09570879015351386</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.4715749509261963</v>
+        <v>-0.4718149651904697</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.733309365370229</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-16.55981835537413</v>
+        <v>-16.55981835537412</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.4762489750542054</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02567008018809696</v>
+        <v>-0.1715762667078469</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.61720961668007</v>
+        <v>-7.689936057867872</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-22.0283334946247</v>
+        <v>-22.27817553324445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.253833713844467</v>
+        <v>-6.254513610850629</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.88371944893695</v>
+        <v>-11.44280416616081</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-29.32562489227774</v>
+        <v>-28.8120549244195</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.414817379026487</v>
+        <v>-1.587260511005318</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.744758237036662</v>
+        <v>-7.896293893927093</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-23.94611324307526</v>
+        <v>-23.98720139500665</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.51701107504097</v>
+        <v>10.60412560974168</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.209045614113905</v>
+        <v>2.978810278710999</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-9.998146827254459</v>
+        <v>-9.982083148418228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.495978037032184</v>
+        <v>5.34487612701267</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0579572649606941</v>
+        <v>-0.1969841207611836</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-18.23986163113729</v>
+        <v>-17.93992050119485</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.643880055997904</v>
+        <v>6.404811880023536</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1796030343610321</v>
+        <v>0.03891504719033161</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-15.61455881679217</v>
+        <v>-15.83046371630078</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.08131130692067441</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4926264439378814</v>
+        <v>-0.4926264439378812</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.01166587766611103</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.002229618451069137</v>
+        <v>-0.003083209014100098</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2130151789527245</v>
+        <v>-0.2149232184782618</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.622505211454726</v>
+        <v>-0.6290305186655246</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1424764979967568</v>
+        <v>-0.147708055285886</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2456245262206163</v>
+        <v>-0.2631027552904183</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6703597393963887</v>
+        <v>-0.6721725811257712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03789460061796237</v>
+        <v>-0.04157127750126228</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2022048506766843</v>
+        <v>-0.2063479637255928</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6203705445404059</v>
+        <v>-0.6210380309232963</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3458428131481021</v>
+        <v>0.3504894589070715</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.06848628909065935</v>
+        <v>0.09482081211757339</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3016975961315587</v>
+        <v>-0.3101198997513265</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1424150322130796</v>
+        <v>0.1395937386458975</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.002284636684396343</v>
+        <v>-0.007273047416072758</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4777113749021755</v>
+        <v>-0.4776968621200476</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1874431855737507</v>
+        <v>0.1833188538765109</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.005097414390276142</v>
+        <v>0.00096324598440798</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.4417316607619387</v>
+        <v>-0.4506995115226881</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.316721733379727</v>
+        <v>3.035966991478112</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.112939537957473</v>
+        <v>-3.383481497834302</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-19.19529347896562</v>
+        <v>-19.06450026766929</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.52468900575673</v>
+        <v>-4.982046883350027</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-17.78107263047309</v>
+        <v>-17.80843169943784</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-29.9211366665129</v>
+        <v>-30.13314882632008</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1390300671692847</v>
+        <v>0.3975176256230318</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.094559383262318</v>
+        <v>-9.493215920648614</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-23.78906350599881</v>
+        <v>-23.52731348154119</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.69723533485967</v>
+        <v>13.04217084024173</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.534249301934948</v>
+        <v>6.361160419625198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-10.51677979685251</v>
+        <v>-10.64043114523425</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.433978302209595</v>
+        <v>6.069911420673484</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-7.120313547658474</v>
+        <v>-7.433447726440701</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-21.17306319556173</v>
+        <v>-20.7073242546818</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.37104736115828</v>
+        <v>7.531775260040654</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.919735827655167</v>
+        <v>-1.744230014269787</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-17.28979449336403</v>
+        <v>-17.44198106368442</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.07746538976360776</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.6317207394465403</v>
+        <v>-0.6317207394465402</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.0008268023010032052</v>
@@ -1197,7 +1197,7 @@
         <v>-0.1796939702357119</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.6440206465865068</v>
+        <v>-0.6440206465865066</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.08866758007881323</v>
+        <v>0.1137705935515302</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1256545102794187</v>
+        <v>-0.1326017945256233</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7387118867193755</v>
+        <v>-0.7378411296467978</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.129059448359386</v>
+        <v>-0.1166007434179545</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4214267811822687</v>
+        <v>-0.4198157714828896</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7139146966081569</v>
+        <v>-0.7079052210412301</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.003231705985821121</v>
+        <v>0.01196407806609973</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2710133858189141</v>
+        <v>-0.27884800566539</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6970491866711405</v>
+        <v>-0.7000374063789536</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6019569980708004</v>
+        <v>0.6198082807763505</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3185564367755233</v>
+        <v>0.3096670855263569</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.4869753340830144</v>
+        <v>-0.5010338131317504</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.143902479157938</v>
+        <v>0.1664220703953066</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1896540717025409</v>
+        <v>-0.2004392757670201</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.5787658189088657</v>
+        <v>-0.5563997617828935</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2437382722958782</v>
+        <v>0.2488576421533742</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.06486679871921772</v>
+        <v>-0.05887461130674864</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.5674536051707474</v>
+        <v>-0.57984901867745</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-9.566572356556179</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-23.48764351596919</v>
+        <v>-23.4876435159692</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.302684122434812</v>
+        <v>-2.710364177810519</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.40652348749222</v>
+        <v>-10.93517321552023</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-24.27690075511079</v>
+        <v>-23.76492126465487</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.816096539555528</v>
+        <v>-1.778262512987398</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-19.92828023487382</v>
+        <v>-19.72442022102337</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-33.53414296641492</v>
+        <v>-33.24635130950376</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4539865510923362</v>
+        <v>-0.1046343606485906</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-14.29530274535672</v>
+        <v>-13.50159787582051</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-27.35060384017339</v>
+        <v>-26.91439771564743</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.493117230534336</v>
+        <v>9.538485104725684</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1135650229347386</v>
+        <v>0.9228885918262738</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-14.33471359999445</v>
+        <v>-13.38992388094021</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.889662612064676</v>
+        <v>11.17500638983756</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-7.542649531190079</v>
+        <v>-8.397640397029935</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-23.45443131881112</v>
+        <v>-23.60771586052726</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.54422925018701</v>
+        <v>8.631982721192525</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.887855737775822</v>
+        <v>-5.295318195103421</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-20.19852425177214</v>
+        <v>-19.74709312794524</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.2622793379026606</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.6439426119053304</v>
+        <v>-0.6439426119053305</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.06699090848769329</v>
+        <v>-0.08186396047452647</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3419251044551619</v>
+        <v>-0.3232305287054809</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7180111049884642</v>
+        <v>-0.7144554683808325</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03957579633166553</v>
+        <v>-0.03875793253505264</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4395269169577886</v>
+        <v>-0.4331533119308554</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.7228885373670403</v>
+        <v>-0.7175090028142064</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0117616430359504</v>
+        <v>-0.004332460256512832</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3638171534679898</v>
+        <v>-0.3519820901065789</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6956705031494634</v>
+        <v>-0.6903914724656075</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3556798618666412</v>
+        <v>0.3547228464387492</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.004879063009320649</v>
+        <v>0.04021406988160629</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.5192388630470994</v>
+        <v>-0.5010324540041784</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2462292199427786</v>
+        <v>0.2793095508578073</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2005069324754443</v>
+        <v>-0.2090677728365384</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.6028271871157959</v>
+        <v>-0.6010034343132095</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2508823141769875</v>
+        <v>0.2503030966404667</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1731006375764717</v>
+        <v>-0.1569926095291155</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.5855181760186902</v>
+        <v>-0.5820766710844757</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-7.613048410566689</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-19.70597012313933</v>
+        <v>-19.70597012313932</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.34770972264158</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.644488340810028</v>
+        <v>-1.765789184827359</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.650790162799625</v>
+        <v>-5.02989091030243</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-14.98040197143472</v>
+        <v>-14.63224342428409</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.262156916921443</v>
+        <v>-2.688260992350858</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-14.17835952062805</v>
+        <v>-13.6028469392779</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-25.55839316723246</v>
+        <v>-25.43922547412082</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.162842105422153</v>
+        <v>-0.3039143059704447</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-8.138252166010941</v>
+        <v>-7.948377003279836</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-18.3696762274099</v>
+        <v>-18.38226346478424</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.05048858020478</v>
+        <v>10.87992725058561</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.16121694292539</v>
+        <v>6.873508685663632</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-4.488477015828392</v>
+        <v>-4.524543776735094</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.90372347116267</v>
+        <v>10.44997116389596</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.138438901011091</v>
+        <v>-1.32438092712923</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-14.55476877027827</v>
+        <v>-14.20456966762807</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.538316026812181</v>
+        <v>9.239634509770781</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.082505895904108</v>
+        <v>1.252414395910225</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-11.17774337837986</v>
+        <v>-11.2478308461186</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.2337946364332991</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.6051649578518671</v>
+        <v>-0.605164957851867</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.159060683065012</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.06459984359647587</v>
+        <v>-0.06509082446981802</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1905167395829818</v>
+        <v>-0.1968722211404562</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5788808329382711</v>
+        <v>-0.5730992886515992</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.0684436170280686</v>
+        <v>-0.07763039431818737</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4050391511856603</v>
+        <v>-0.3856524280761683</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.6858628435383514</v>
+        <v>-0.6944833757914231</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.007358583548258101</v>
+        <v>-0.01059562124312647</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2741352252999674</v>
+        <v>-0.2645432327702944</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6204498330449558</v>
+        <v>-0.6188657002883748</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5798029502289339</v>
+        <v>0.6142919519884517</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3984773380799316</v>
+        <v>0.3542548821142899</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.2400474867542652</v>
+        <v>-0.2429749415066689</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3692225366889044</v>
+        <v>0.3509413670320319</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.04216157019831705</v>
+        <v>-0.04068585230022513</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.4984908920362482</v>
+        <v>-0.5033206954670547</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3846421603291615</v>
+        <v>0.3658269558406294</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.04441606100861362</v>
+        <v>0.04820386688575082</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4496973266160527</v>
+        <v>-0.4512797237949935</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>2.969956552139783</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-2.928470223890195</v>
+        <v>-2.928470223890197</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>4.262077982196807</v>
@@ -1725,7 +1725,7 @@
         <v>-5.534383237433685</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-9.36716497028752</v>
+        <v>-9.367164970287522</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.329839646870841</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.005012767774284</v>
+        <v>3.00892651113194</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.33422020219046</v>
+        <v>-1.899619899680125</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.549456147071239</v>
+        <v>-7.448249486289595</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.890210348515455</v>
+        <v>-1.98238233673438</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-11.5875918214623</v>
+        <v>-11.47278967427297</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-14.28965789967924</v>
+        <v>-14.71395492553828</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.883915729708118</v>
+        <v>1.763188628148784</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.95161801460771</v>
+        <v>-5.115858248185202</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-9.611178822747956</v>
+        <v>-9.774132641814825</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.57075116800408</v>
+        <v>14.63496901153251</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.926306225031466</v>
+        <v>8.815140506582706</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.028203410659051</v>
+        <v>1.224169929078171</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.66042355459928</v>
+        <v>10.8606948068417</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.711781897236351</v>
+        <v>-0.0434699213742752</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-4.697646356187155</v>
+        <v>-4.745391775264167</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.6985690453959</v>
+        <v>11.19517763293358</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.835765913508174</v>
+        <v>2.309785254498233</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-3.320885071824835</v>
+        <v>-3.075061698427849</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.3081139368367414</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.3038099964600136</v>
+        <v>-0.3038099964600137</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2213056576655981</v>
@@ -1830,7 +1830,7 @@
         <v>-0.2873692896398926</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.4863840157009844</v>
+        <v>-0.4863840157009846</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4337310146050027</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2321254093812607</v>
+        <v>0.2290515385719908</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1885282338149947</v>
+        <v>-0.1498297629330403</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5906741451478796</v>
+        <v>-0.5918865378791327</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1114734535620884</v>
+        <v>-0.09382254098157197</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5116825508836389</v>
+        <v>-0.5138662790176477</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.6176630878962206</v>
+        <v>-0.6258936453872119</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1162069584427869</v>
+        <v>0.106194503098064</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.295031573768437</v>
+        <v>-0.313087440534408</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.556734825271365</v>
+        <v>-0.5769041375645191</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.081367509191344</v>
+        <v>2.018584236218802</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.12608600772582</v>
+        <v>1.24971461815704</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.1712963274155686</v>
+        <v>0.2105029311741412</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.6934730965316033</v>
+        <v>0.6963226849473352</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.04999892435616851</v>
+        <v>-0.0003988359340430777</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.2838696323091537</v>
+        <v>-0.2663616549920592</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8675767824152221</v>
+        <v>0.8955553028689157</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2282710168992573</v>
+        <v>0.1836106678093272</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.2514497240580564</v>
+        <v>-0.2512598934543167</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.246243697596008</v>
+        <v>-7.735125601387879</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-10.89194214039863</v>
+        <v>-10.64459886928046</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-15.40949855865724</v>
+        <v>-16.0822813532064</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.362204533368587</v>
+        <v>-6.375290335504758</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-13.51832800907551</v>
+        <v>-13.45650317586745</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-18.1561865757667</v>
+        <v>-17.00761632999872</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-5.085886137241122</v>
+        <v>-4.645300847479564</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-10.59935648305944</v>
+        <v>-10.59523529599064</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-14.7488453195928</v>
+        <v>-14.60252647742846</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.838855355154728</v>
+        <v>6.662391532927174</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.190530831887076</v>
+        <v>1.405818856658744</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-5.14068282510486</v>
+        <v>-4.973525119271134</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.360627279443142</v>
+        <v>7.13618328642344</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.3940487754519768</v>
+        <v>-0.7555488520746509</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-6.110143445945654</v>
+        <v>-6.286090643722238</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.666514823986986</v>
+        <v>4.909378956511763</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-1.325208316659756</v>
+        <v>-1.564498437393438</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-6.818326212024342</v>
+        <v>-6.749365535541902</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.4305954535220902</v>
+        <v>-0.5170302907215725</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6983609509004711</v>
+        <v>-0.6867543375106462</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.9664564302807178</v>
+        <v>-0.9576742002898145</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.30205030308095</v>
+        <v>-0.3077870410806008</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.6389660799999555</v>
+        <v>-0.6365466612315857</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.7933045629428844</v>
+        <v>-0.7722701274643631</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2813310914680182</v>
+        <v>-0.2627115185523323</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.6021016028499578</v>
+        <v>-0.6003462699581114</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.8153119896699634</v>
+        <v>-0.8133578908267013</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.062508032381608</v>
+        <v>0.9640785239069857</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.209453352237289</v>
+        <v>0.2169603424918678</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.6363561772683101</v>
+        <v>-0.6230095422849051</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5290308815210562</v>
+        <v>0.4965526885925551</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.008370591801399917</v>
+        <v>-0.02119039904581078</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.45476610567221</v>
+        <v>-0.4398899904795003</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.384834603989929</v>
+        <v>0.4002098727810376</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1118444883168551</v>
+        <v>-0.1210954008016356</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.5689413450293538</v>
+        <v>-0.5695433316271215</v>
       </c>
     </row>
     <row r="46">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.685040905814825</v>
+        <v>1.902208197016397</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.792584179326322</v>
+        <v>-5.595894896171997</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-19.57263697304388</v>
+        <v>-19.2967357698062</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.9622319211737843</v>
+        <v>-0.7694666062281809</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-12.92276807633019</v>
+        <v>-12.54124848038557</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-25.56311383123003</v>
+        <v>-25.36909635364147</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.286694241909169</v>
+        <v>1.14203064634993</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-8.515167175000277</v>
+        <v>-8.580567225765424</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-21.71801885037694</v>
+        <v>-21.8621786029597</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.594862220696853</v>
+        <v>6.505056325896708</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.1327513755839</v>
+        <v>-1.307968784357139</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-15.01825215787863</v>
+        <v>-15.11513660561055</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.057238914870482</v>
+        <v>4.014995293362221</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-8.064724655087792</v>
+        <v>-8.086040514431041</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-21.29593511487397</v>
+        <v>-21.16769844153373</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.796406490058911</v>
+        <v>4.575169049851168</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>-5.045369280957295</v>
+        <v>-5.209762442714641</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>-18.86609893205311</v>
+        <v>-18.77583337826188</v>
       </c>
     </row>
     <row r="49">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.05275153759596403</v>
+        <v>0.06409859033752179</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1945962643477269</v>
+        <v>-0.1891450845883604</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.6548803940438425</v>
+        <v>-0.6476911520654129</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.02531859130111253</v>
+        <v>-0.02039676046564762</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.333174093575328</v>
+        <v>-0.328315553953289</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.6666722027776353</v>
+        <v>-0.6632541436396413</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03883382036677163</v>
+        <v>0.03426543424533331</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2540373164089783</v>
+        <v>-0.2540072074430461</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.6441797143205975</v>
+        <v>-0.6433303888524784</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2408911248575505</v>
+        <v>0.2385721268744762</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.04060611049218535</v>
+        <v>-0.04910173316407289</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.5479638493315153</v>
+        <v>-0.5442832750877882</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1130518525748078</v>
+        <v>0.1121438676088221</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.2245871369707965</v>
+        <v>-0.2249305627191943</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.5928362159602971</v>
+        <v>-0.5920254660459066</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1493482987723523</v>
+        <v>0.1428707410024004</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>-0.1586906290630787</v>
+        <v>-0.162765583133198</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>-0.585368321915084</v>
+        <v>-0.5803488482498069</v>
       </c>
     </row>
     <row r="52">
